--- a/excel/ticket_amount.xlsx
+++ b/excel/ticket_amount.xlsx
@@ -386,7 +386,7 @@
         <v>5000</v>
       </c>
       <c r="C1">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:3">
